--- a/Waveform Generator PDB/Altium Files/Project Outputs/WAVEFORM_GENERATOR.xlsx
+++ b/Waveform Generator PDB/Altium Files/Project Outputs/WAVEFORM_GENERATOR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WAVEFORM_GENERATOR\Project Outputs for WAVEFORM_GENERATOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E304A9-C3E2-4C3E-A1BC-6107CB9FABDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD5D8E8-126F-4A3B-B220-EE622C3BF700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9FC5F58-9CBD-47F5-B237-D4A2598F0166}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="255">
   <si>
     <t>Line #</t>
   </si>
@@ -720,13 +720,97 @@
   </si>
   <si>
     <t>4228795</t>
+  </si>
+  <si>
+    <t>399-C0603C104K5RACTUTR-ND</t>
+  </si>
+  <si>
+    <t>490-1313-1-ND</t>
+  </si>
+  <si>
+    <t>399-C1206C104K5RACTUCT-ND</t>
+  </si>
+  <si>
+    <t>CL21A475KAQNNNE</t>
+  </si>
+  <si>
+    <t>1276-2891-1-ND</t>
+  </si>
+  <si>
+    <t>490-12703-1-ND</t>
+  </si>
+  <si>
+    <t>1276-3091-1-ND</t>
+  </si>
+  <si>
+    <t>490-3194-1-ND</t>
+  </si>
+  <si>
+    <t>CUS10S30H3FCT-ND</t>
+  </si>
+  <si>
+    <t>PEC12R-4225F-S0024-ND</t>
+  </si>
+  <si>
+    <t>ICL7662CBA+TCT-ND</t>
+  </si>
+  <si>
+    <t>900-2171750001CT-ND</t>
+  </si>
+  <si>
+    <t>2223-PT01-D130K2-B203-ND</t>
+  </si>
+  <si>
+    <t>SSM3K341TULFCT-ND</t>
+  </si>
+  <si>
+    <t>108-Y97KT23B5NAFPCT-ND</t>
+  </si>
+  <si>
+    <t>497-17331-1-ND</t>
+  </si>
+  <si>
+    <t>MIC5317-3.3YM5-CT-ND</t>
+  </si>
+  <si>
+    <t>1923-831019082CT-ND</t>
+  </si>
+  <si>
+    <t>311-10KJRCT-ND</t>
+  </si>
+  <si>
+    <t>541-54.9KHCT-ND</t>
+  </si>
+  <si>
+    <t>541-10.0KCCT-ND</t>
+  </si>
+  <si>
+    <t>311-5.10KHRCT-ND</t>
+  </si>
+  <si>
+    <t>541-1.00KCCT-ND</t>
+  </si>
+  <si>
+    <t>P750ADCT-ND</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R4, R6, R10</t>
+  </si>
+  <si>
+    <t>311-1.0KJRCT-ND</t>
+  </si>
+  <si>
+    <t>P165HCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,8 +818,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,8 +839,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -772,16 +881,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,14 +1273,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9106F322-D1A0-4BE2-8CB9-B154D86DE907}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.21875" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
@@ -1185,7 +1345,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1232,7 +1392,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1279,7 +1439,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1326,7 +1486,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1373,7 +1533,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1420,7 +1580,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1467,7 +1627,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1514,7 +1674,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1561,7 +1721,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1608,7 +1768,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1655,7 +1815,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1702,7 +1862,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1737,7 +1897,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1784,7 +1944,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1831,7 +1991,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1874,7 +2034,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1903,7 +2063,7 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1946,7 +2106,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1991,7 +2151,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2036,7 +2196,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2081,7 +2241,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2128,7 +2288,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2173,7 +2333,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2220,7 +2380,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2265,7 +2425,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2300,7 +2460,7 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2339,7 +2499,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2378,7 +2538,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2425,7 +2585,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2472,7 +2632,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2511,7 +2671,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2550,7 +2710,7 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2589,7 +2749,7 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2628,7 +2788,7 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2675,7 +2835,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2722,7 +2882,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2769,7 +2929,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2816,7 +2976,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2907,6 +3067,425 @@
       </c>
       <c r="O40" s="1">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>10</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
+      <c r="B49" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>10</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>25</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>10</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>10</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>10</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>10</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>10</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>10</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>10</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="15"/>
+      <c r="B79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
